--- a/TISDeroga2021/TracciatoXLSX/XLSX_TIS_DEROGA_2021.xlsx
+++ b/TISDeroga2021/TracciatoXLSX/XLSX_TIS_DEROGA_2021.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repository\VSCode\tis_rendicontazione\TISDeroga2021\TracciatoXLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarioConte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF4D860-D94F-4DC0-A10C-166902DD173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6CAB57-A0ED-45CF-AB7B-AE86FFDD36EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2850" windowWidth="17280" windowHeight="9135" tabRatio="483" activeTab="1" xr2:uid="{C62F197E-4834-1546-9B8C-4BDFB4210C62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="483" xr2:uid="{C62F197E-4834-1546-9B8C-4BDFB4210C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Istanze" sheetId="1" r:id="rId1"/>
     <sheet name="Lavoratori" sheetId="2" r:id="rId2"/>
     <sheet name="GiornateFruite" sheetId="3" r:id="rId3"/>
-    <sheet name="Tipologiche" sheetId="5" r:id="rId4"/>
+    <sheet name="Tipologiche" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Istanze!$A$1:$R$1</definedName>
@@ -268,17 +268,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -611,9 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7CC479-9EB7-1D4B-A1C1-E99C9EBFB207}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -698,10 +686,10 @@
   <sheetProtection selectLockedCells="1" autoFilter="0"/>
   <autoFilter ref="A1:R1" xr:uid="{369444C7-00C3-41FE-89D1-20E39C1266F3}"/>
   <conditionalFormatting sqref="A1 A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="12">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribuzione Orario Aziendale" error="Inserire un valore compreso tra 5 e 7" promptTitle="Distribuzione Orario Aziendale" prompt="Inserire un valore compreso tra 5 e 7 per indicare la distribuzione di orario prevalente in azienda" sqref="M2:M1048576" xr:uid="{31365F8A-10D9-421D-BB5C-C0AA0D384E96}">
@@ -805,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2A5F62-5E65-EE42-A866-6CDFA1827C3F}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -912,15 +900,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BDhvpe7h+7sbZPa/RlI35GK4DU9JZvliJJCnsjL5dV5tkG6ZSXrKo8+btJN7eTt+Kihrb9DG485Uf4/OSht9Jg==" saltValue="nayXI6bm/26vmw+/x3tL1A==" spinCount="100000" sheet="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection selectLockedCells="1" autoFilter="0"/>
   <autoFilter ref="A1:S1" xr:uid="{B1E0D013-8FDE-4AA2-A0C8-EA9D2E0E0052}"/>
   <dataConsolidate/>
-  <dataValidations count="16">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Codice Fiscale Lavoratore" error="Inserire il codice fiscale del lavoratore (lunghezza 16 caratteri)" promptTitle="Codice Fiscale Lavoratore" prompt="Inserire il codice fiscale del lavoratore (lunghezza 16 caratteri)" sqref="D2:E1048576" xr:uid="{A1ED1A55-1943-42E6-9ECF-B4931EA846D8}">
+  <dataValidations count="18">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Codice Fiscale Lavoratore" error="Inserire il codice fiscale del lavoratore (lunghezza 16 caratteri)" promptTitle="Codice Fiscale Lavoratore" prompt="Inserire il codice fiscale del lavoratore (lunghezza 16 caratteri)" sqref="D2:D1048576" xr:uid="{A1ED1A55-1943-42E6-9ECF-B4931EA846D8}">
       <formula1>16</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Anno Riferimento Lavoratore" error="Inserire l'anno di riferimento a cui la rendicontazione fa riferimento" promptTitle="Anno Riferimento Lavoratore" prompt="Inserire l'anno di riferimento a cui la rendicontazione fa riferimento" sqref="B2:B1048576" xr:uid="{48C5200E-9C61-4CDD-A975-CC67B77C8013}">
-      <formula1>2020</formula1>
+      <formula1>2021</formula1>
       <formula2>2021</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mese di Riferimento" error="Indicare il mese di riferimento per cui si sta rendicontando il lavoratore" promptTitle="Mese di Riferimento" prompt="Indicare il mese di riferimento per cui si sta rendicontando il lavoratore" sqref="C2:C1048576" xr:uid="{4064E523-F184-4C00-8071-E805331C4AB2}">
@@ -971,13 +959,15 @@
       <formula2>100</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Supporto alla compilazione" prompt="Indicare lista mesi a cui fanno riferimento eventuali STORNI presenti in busta (formato AAAA/MM;AAAA/MM;), es se si vuole indicare per il mese di aprile arretrati riferiti a febbraio e marzo indicare &quot;2021/02;2021/03&quot;, se colonna X = N lasciare vuoto" sqref="X2 X5:X1048576" xr:uid="{CA8B4D21-68BE-4EE7-A133-DC13783B53F6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Supporto alla compilazione" prompt="Indicare lista mesi a cui fanno riferimento eventuali ARRETRATI presenti in busta (formato AAAA/MM;AAAA/MM;), es se si vuole indicare per il mese di aprile arretrati riferiti a febbraio e marzo indicare &quot;2021/02;2021/03&quot;, se colonna X = N lasciare vuoto" sqref="V2:V1048576 X3:X4" xr:uid="{95633CA7-9A83-495A-B877-72CC76611B3A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Supporto alla compilazione" prompt="Indicare lista mesi a cui fanno riferimento eventuali ARRETRATI presenti in busta (formato AAAA/MM;AAAA/MM;), es se si vuole indicare per il mese di aprile arretrati riferiti a febbraio e marzo indicare &quot;2021/02;2021/03&quot;, se colonna X = N lasciare vuoto" sqref="X3:X4 V2:V1048576" xr:uid="{95633CA7-9A83-495A-B877-72CC76611B3A}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" errorTitle="Cognome" error="Inserire il codice fiscale del lavoratore (lunghezza 16 caratteri)" promptTitle="Cognome" prompt="Inserire il cognome del lavoratore" sqref="E2:E1048576" xr:uid="{9B23B04A-63A0-4837-9802-00CEE062FB6D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nome del lavoratore" sqref="F2:F1048576" xr:uid="{FD626084-E726-4D2D-BDC0-8C7153525535}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identificativo Pratica" error="Qui va inserito l'identificativo pratica dell'istanza a cui il lavoratore fa riferimento" promptTitle="Identificativo Pratica" prompt="Qui va inserito l'identificativo pratica dell'istanza a cui il lavoratore fa riferimento (colonna A, foglio Istanze)" xr:uid="{368A3806-1DAB-4B80-BA5B-44F906F4C09F}">
           <x14:formula1>
             <xm:f>Istanze!$A:$A</xm:f>
@@ -988,19 +978,31 @@
           <x14:formula1>
             <xm:f>Tipologiche!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sgravi aliquota contributiva " error="Vi sono sgravi sull’aliquota contributiva previdenziale del lavoratore? Indicare S o N" promptTitle="Sgravi aliquota contributiva " prompt="Vi sono sgravi sull’aliquota contributiva previdenziale del lavoratore? Indicare S o N" xr:uid="{5E491F2A-CF08-405A-ACBD-CD4BCB1F3C6E}">
           <x14:formula1>
             <xm:f>Tipologiche!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J1048576</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lavoratore Assunto Risp. Acc.Par" error="Inserire se il lavoratore è alle dipendenze dell'agenzia secondo accordi tra le parti sociali_x000a_S = SI_x000a_N = NO" promptTitle="Lavoratore Assunto Risp. Acc.Par" prompt="Inserire se il lavoratore è alle dipendenze dell'agenzia secondo accordi tra le parti sociali_x000a_S = SI_x000a_N = NO" xr:uid="{37436056-1D5C-4E8D-B9E4-933B506DCE0C}">
           <x14:formula1>
             <xm:f>Tipologiche!$D$2:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>S2:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Presenti arretrati in busta?" prompt="S / N" xr:uid="{66FB2B2C-51E9-4E4A-BB5E-EB6069251E09}">
+          <x14:formula1>
+            <xm:f>Tipologiche!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>U2:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Presenti storni in busta?" xr:uid="{136FC70E-EF6E-4D06-B352-5F5D8A2ACF35}">
+          <x14:formula1>
+            <xm:f>Tipologiche!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1013,7 +1015,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1038,11 +1040,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GCbIAsr8eS4O/CdNCrYvx2AKQspNRh2QrQ7GDupUPm8CRqmb8TL7gNqcNEIN9GIyaXtMJxDzi4kfLrKV1iaOGg==" saltValue="XhiDTMg0p31FHsvJtMDjXQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Anno riferimento " error="Inserire l'anno di riferimento di cui si stanno indicate le giornate fruite (fisso 2020)" promptTitle="Anno riferimento " prompt="Inserire l'anno di riferimento di cui si stanno indicate le giornate fruite (fisso 2020)" sqref="C2:C1048576" xr:uid="{7D64DC23-DD90-4842-A22A-F55D04ACAC42}">
-      <formula1>2020</formula1>
+    <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Anno riferimento " error="Inserire l'anno di riferimento di cui si stanno indicate le giornate fruite (fisso 2021)" promptTitle="Anno riferimento " prompt="Inserire l'anno di riferimento di cui si stanno indicate le giornate fruite (fisso 2021)" sqref="C2:C1048576" xr:uid="{7D64DC23-DD90-4842-A22A-F55D04ACAC42}">
+      <formula1>2021</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mese Riferimento" error="Inserire il mese a cui fa riferimento il numero di giornate fruite indicate (2-12)" promptTitle="Mese Riferimento" prompt="Inserire il mese a cui fa riferimento il numero di giornate fruite indicate (valori ammessi da 2 a 12)" sqref="D2:D1048576" xr:uid="{43C46FAE-6C02-44EF-80A5-F4645E052DB5}">
       <formula1>2</formula1>
